--- a/Output/cuadro4.Empresas_con_sindicato_sector_tamaño.xlsx
+++ b/Output/cuadro4.Empresas_con_sindicato_sector_tamaño.xlsx
@@ -1,22 +1,238 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inechile-my.sharepoint.com/personal/nicolas_ratto_ine_cl/Documents/GitHub/OBSERVATORIO SINDICAL/Encla histórica/Output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_35DCE91D6160E6E822C74DA9A7F8E95EFBC4A9A3" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D36D2283-DEAC-4E2F-A37D-C49D0585924E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
     <sheet name="2014" sheetId="2" r:id="rId2"/>
+    <sheet name="1998" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1998'!$A$1:$H$37</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="66">
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>tamano</t>
+  </si>
+  <si>
+    <t>con_sindicato</t>
+  </si>
+  <si>
+    <t>sin_sindicato</t>
+  </si>
+  <si>
+    <t>porcentaje_sindicato</t>
+  </si>
+  <si>
+    <t>ENCLA</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>sector_letra</t>
+  </si>
+  <si>
+    <t>Agricultura, ganadería, silvicultura y pesca</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Explotación de minas y canteras</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Industrias manufactureras</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Suministro de electricidad, gas, vapor  y aire acondicionado; y Suministro de agua; evacuación de aguas residuales, ges</t>
+  </si>
+  <si>
+    <t>D-E</t>
+  </si>
+  <si>
+    <t>Construcción</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Comercio al por mayor y al por menor; Reparación de vehículos automotores, motocicletas</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Transporte y almacenamiento; información y comunicaciones</t>
+  </si>
+  <si>
+    <t>H-J</t>
+  </si>
+  <si>
+    <t>Actividades de alojamiento y de servicio de comidas</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Actividades financieras y de seguros; Actividades inmobiliarias</t>
+  </si>
+  <si>
+    <t>K-L</t>
+  </si>
+  <si>
+    <t>Actividades profesionales, científicas y técnicas; Actividades de servicios administrativos y de apoyo</t>
+  </si>
+  <si>
+    <t>M-N</t>
+  </si>
+  <si>
+    <t>Enseñanza</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Actividades de atención de la salud humana y de asistencia social</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Actividades artísticas, de entretenimiento y recreativas; Otras actividades de servicios</t>
+  </si>
+  <si>
+    <t>R-S</t>
+  </si>
+  <si>
+    <t>TAMAÑO</t>
+  </si>
+  <si>
+    <t>Agricultura, ganadería, caza y silvicultura</t>
+  </si>
+  <si>
+    <t>Pesca</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Industria manufacturera</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Suministro de electricidad, gas y agua</t>
+  </si>
+  <si>
+    <t>Comercio al por mayor y al por menor; Reparación de vehículos automotores, motocicletas, efectos personales y enseres do</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Hoteles y restaurantes</t>
+  </si>
+  <si>
+    <t>Transporte, almacenamiento y comunicaciones</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Intermediación financiera</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Actividades inmobiliarias, empresariales y de alquiler</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Servicios sociales y de salud</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Otras actividades de servicios comunitarios, sociales y personales</t>
+  </si>
+  <si>
+    <t>tamaño</t>
+  </si>
+  <si>
+    <t>Agricultura pesca</t>
+  </si>
+  <si>
+    <t>minas y canteras</t>
+  </si>
+  <si>
+    <t>Ind.manufactura</t>
+  </si>
+  <si>
+    <t>elec. gas agua</t>
+  </si>
+  <si>
+    <t>construccion</t>
+  </si>
+  <si>
+    <t>comercio</t>
+  </si>
+  <si>
+    <t>G-I</t>
+  </si>
+  <si>
+    <t>transporte almacenaje</t>
+  </si>
+  <si>
+    <t>estab. financieros</t>
+  </si>
+  <si>
+    <t>servicios sociales y personales</t>
+  </si>
+  <si>
+    <t>Q-S</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26,6 +242,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -50,25 +273,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -110,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -142,9 +376,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,6 +428,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,56 +621,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sector</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>tamano</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>con_sindicato</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>sin_sindicato</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>porcentaje_sindicato</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ENCLA</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sector_letra</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -411,26 +665,22 @@
         <v>109.7462349589885</v>
       </c>
       <c r="D2">
-        <v>257.4483311136311</v>
+        <v>257.44833111363113</v>
       </c>
       <c r="E2">
-        <v>0.298877611759876</v>
+        <v>0.29887761175987598</v>
       </c>
       <c r="F2">
         <v>2019</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Agricultura, ganadería, silvicultura y pesca</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -441,26 +691,22 @@
         <v>37.99174883992854</v>
       </c>
       <c r="D3">
-        <v>900.7104113178405</v>
+        <v>900.71041131784045</v>
       </c>
       <c r="E3">
-        <v>0.04047263386881225</v>
+        <v>4.0472633868812252E-2</v>
       </c>
       <c r="F3">
         <v>2019</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Agricultura, ganadería, silvicultura y pesca</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -468,29 +714,25 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>29.7407957244656</v>
+        <v>29.740795724465599</v>
       </c>
       <c r="D4">
-        <v>3638.37480838577</v>
+        <v>3638.3748083857699</v>
       </c>
       <c r="E4">
-        <v>0.00810792214158685</v>
+        <v>8.1079221415868499E-3</v>
       </c>
       <c r="F4">
         <v>2019</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Agricultura, ganadería, silvicultura y pesca</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -498,23 +740,19 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>2081.431826034351</v>
+        <v>2081.4318260343512</v>
       </c>
       <c r="F5">
         <v>2019</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Agricultura, ganadería, silvicultura y pesca</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -522,29 +760,25 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>36.10752408477842</v>
+        <v>36.107524084778419</v>
       </c>
       <c r="D6">
-        <v>56.14608984798904</v>
+        <v>56.146089847989039</v>
       </c>
       <c r="E6">
-        <v>0.3913941421426899</v>
+        <v>0.39139414214268992</v>
       </c>
       <c r="F6">
         <v>2019</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Explotación de minas y canteras</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -552,23 +786,19 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>138.9916538902673</v>
+        <v>138.99165389026729</v>
       </c>
       <c r="F7">
         <v>2019</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Explotación de minas y canteras</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -582,23 +812,19 @@
         <v>10.88053949903661</v>
       </c>
       <c r="E8">
-        <v>0.7921136067663396</v>
+        <v>0.79211360676633957</v>
       </c>
       <c r="F8">
         <v>2019</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Explotación de minas y canteras</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
@@ -606,23 +832,19 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>269.6837106802515</v>
+        <v>269.68371068025152</v>
       </c>
       <c r="F9">
         <v>2019</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Explotación de minas y canteras</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3</v>
       </c>
@@ -630,29 +852,25 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>591.0880303429453</v>
+        <v>591.08803034294533</v>
       </c>
       <c r="D10">
         <v>1067.487060384296</v>
       </c>
       <c r="E10">
-        <v>0.3563830384572875</v>
+        <v>0.35638303845728753</v>
       </c>
       <c r="F10">
         <v>2019</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Industrias manufactureras</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -660,29 +878,25 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>346.2738592659391</v>
+        <v>346.27385926593911</v>
       </c>
       <c r="D11">
-        <v>92.55913462794717</v>
+        <v>92.559134627947174</v>
       </c>
       <c r="E11">
-        <v>0.7890789072019302</v>
+        <v>0.78907890720193019</v>
       </c>
       <c r="F11">
         <v>2019</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Industrias manufactureras</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -690,29 +904,25 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>388.1972425478618</v>
+        <v>388.19724254786178</v>
       </c>
       <c r="D12">
-        <v>6531.812915827234</v>
+        <v>6531.8129158272341</v>
       </c>
       <c r="E12">
-        <v>0.05609778507016171</v>
+        <v>5.6097785070161707E-2</v>
       </c>
       <c r="F12">
         <v>2019</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Industrias manufactureras</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3</v>
       </c>
@@ -720,29 +930,25 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>38.5403986684683</v>
+        <v>38.540398668468299</v>
       </c>
       <c r="D13">
-        <v>2978.363962548916</v>
+        <v>2978.3639625489159</v>
       </c>
       <c r="E13">
-        <v>0.01277481618705223</v>
+        <v>1.2774816187052229E-2</v>
       </c>
       <c r="F13">
         <v>2019</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Industrias manufactureras</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>4</v>
       </c>
@@ -750,10 +956,10 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>64.05171654376923</v>
+        <v>64.051716543769231</v>
       </c>
       <c r="D14">
-        <v>16.34166666666666</v>
+        <v>16.341666666666661</v>
       </c>
       <c r="E14">
         <v>0.7967287105719747</v>
@@ -761,18 +967,14 @@
       <c r="F14">
         <v>2019</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Suministro de electricidad, gas, vapor  y aire acondicionado; y Suministro de agua; evacuación de aguas residuales, ges</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>D-E</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -780,29 +982,25 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>41.66954730589111</v>
+        <v>41.669547305891108</v>
       </c>
       <c r="D15">
-        <v>3.93597731950366</v>
+        <v>3.9359773195036598</v>
       </c>
       <c r="E15">
-        <v>0.9136951640873797</v>
+        <v>0.91369516408737972</v>
       </c>
       <c r="F15">
         <v>2019</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Suministro de electricidad, gas, vapor  y aire acondicionado; y Suministro de agua; evacuación de aguas residuales, ges</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>D-E</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4</v>
       </c>
@@ -810,23 +1008,19 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>195.9762378909305</v>
+        <v>195.97623789093049</v>
       </c>
       <c r="F16">
         <v>2019</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Suministro de electricidad, gas, vapor  y aire acondicionado; y Suministro de agua; evacuación de aguas residuales, ges</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>D-E</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4</v>
       </c>
@@ -834,29 +1028,25 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>9.80159966925328</v>
+        <v>9.8015996692532799</v>
       </c>
       <c r="D17">
         <v>136.2250462430047</v>
       </c>
       <c r="E17">
-        <v>0.06712199412662466</v>
+        <v>6.7121994126624659E-2</v>
       </c>
       <c r="F17">
         <v>2019</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Suministro de electricidad, gas, vapor  y aire acondicionado; y Suministro de agua; evacuación de aguas residuales, ges</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>D-E</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>5</v>
       </c>
@@ -864,29 +1054,25 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>253.4591993361852</v>
+        <v>253.45919933618521</v>
       </c>
       <c r="D18">
-        <v>345.2904159469447</v>
+        <v>345.29041594694468</v>
       </c>
       <c r="E18">
-        <v>0.4233141748514231</v>
+        <v>0.42331417485142309</v>
       </c>
       <c r="F18">
         <v>2019</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Construcción</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>5</v>
       </c>
@@ -897,26 +1083,22 @@
         <v>113.5555547952799</v>
       </c>
       <c r="D19">
-        <v>1876.261276509333</v>
+        <v>1876.2612765093329</v>
       </c>
       <c r="E19">
-        <v>0.05706834569332082</v>
+        <v>5.7068345693320817E-2</v>
       </c>
       <c r="F19">
         <v>2019</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Construcción</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>5</v>
       </c>
@@ -927,26 +1109,22 @@
         <v>180.4108203987364</v>
       </c>
       <c r="D20">
-        <v>5573.481085719342</v>
+        <v>5573.4810857193424</v>
       </c>
       <c r="E20">
-        <v>0.03135457240809592</v>
+        <v>3.1354572408095922E-2</v>
       </c>
       <c r="F20">
         <v>2019</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Construcción</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>5</v>
       </c>
@@ -959,18 +1137,14 @@
       <c r="F21">
         <v>2019</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Construcción</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>6</v>
       </c>
@@ -978,29 +1152,25 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>221.3539931763908</v>
+        <v>221.35399317639079</v>
       </c>
       <c r="D22">
         <v>205.0594475997855</v>
       </c>
       <c r="E22">
-        <v>0.5191065102766757</v>
+        <v>0.51910651027667565</v>
       </c>
       <c r="F22">
         <v>2019</v>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Comercio al por mayor y al por menor; Reparación de vehículos automotores, motocicletas</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1008,10 +1178,10 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>178.7187803950982</v>
+        <v>178.71878039509821</v>
       </c>
       <c r="D23">
-        <v>1308.551454625993</v>
+        <v>1308.5514546259931</v>
       </c>
       <c r="E23">
         <v>0.1201656405048433</v>
@@ -1019,18 +1189,14 @@
       <c r="F23">
         <v>2019</v>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Comercio al por mayor y al por menor; Reparación de vehículos automotores, motocicletas</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1041,26 +1207,22 @@
         <v>58.28770667835969</v>
       </c>
       <c r="D24">
-        <v>7421.715513731627</v>
+        <v>7421.7155137316267</v>
       </c>
       <c r="E24">
-        <v>0.007792470799920977</v>
+        <v>7.7924707999209768E-3</v>
       </c>
       <c r="F24">
         <v>2019</v>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Comercio al por mayor y al por menor; Reparación de vehículos automotores, motocicletas</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1068,29 +1230,25 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>1.52822354975409</v>
+        <v>1.5282235497540899</v>
       </c>
       <c r="D25">
-        <v>6252.05505397889</v>
+        <v>6252.0550539788901</v>
       </c>
       <c r="E25">
-        <v>0.0002443756614300704</v>
+        <v>2.443756614300704E-4</v>
       </c>
       <c r="F25">
         <v>2019</v>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Comercio al por mayor y al por menor; Reparación de vehículos automotores, motocicletas</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1101,26 +1259,22 @@
         <v>114.6596360587173</v>
       </c>
       <c r="D26">
-        <v>746.1304819576702</v>
+        <v>746.13048195767021</v>
       </c>
       <c r="E26">
-        <v>0.1332027792360581</v>
+        <v>0.13320277923605811</v>
       </c>
       <c r="F26">
         <v>2019</v>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Transporte y almacenamiento; información y comunicaciones</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>H-J</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1128,29 +1282,25 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>181.3199637351539</v>
+        <v>181.31996373515389</v>
       </c>
       <c r="D27">
-        <v>4477.631163167534</v>
+        <v>4477.6311631675344</v>
       </c>
       <c r="E27">
-        <v>0.03891862326868774</v>
+        <v>3.8918623268687738E-2</v>
       </c>
       <c r="F27">
         <v>2019</v>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Transporte y almacenamiento; información y comunicaciones</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>H-J</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1158,29 +1308,25 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>184.3993888223837</v>
+        <v>184.39938882238371</v>
       </c>
       <c r="D28">
         <v>122.2058964021253</v>
       </c>
       <c r="E28">
-        <v>0.6014227337515037</v>
+        <v>0.60142273375150368</v>
       </c>
       <c r="F28">
         <v>2019</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Transporte y almacenamiento; información y comunicaciones</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>H-J</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>7</v>
       </c>
@@ -1188,23 +1334,19 @@
         <v>4</v>
       </c>
       <c r="D29">
-        <v>1754.738153032922</v>
+        <v>1754.7381530329219</v>
       </c>
       <c r="F29">
         <v>2019</v>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Transporte y almacenamiento; información y comunicaciones</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>H-J</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>8</v>
       </c>
@@ -1212,29 +1354,25 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>70.69966353656351</v>
+        <v>70.699663536563506</v>
       </c>
       <c r="D30">
-        <v>61.83733941846901</v>
+        <v>61.837339418469007</v>
       </c>
       <c r="E30">
-        <v>0.5334333956574427</v>
+        <v>0.53343339565744274</v>
       </c>
       <c r="F30">
         <v>2019</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Actividades de alojamiento y de servicio de comidas</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>8</v>
       </c>
@@ -1242,29 +1380,25 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>50.94689217764906</v>
+        <v>50.946892177649062</v>
       </c>
       <c r="D31">
-        <v>347.8626929655848</v>
+        <v>347.86269296558481</v>
       </c>
       <c r="E31">
-        <v>0.127747411485487</v>
+        <v>0.12774741148548699</v>
       </c>
       <c r="F31">
         <v>2019</v>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Actividades de alojamiento y de servicio de comidas</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>8</v>
       </c>
@@ -1277,18 +1411,14 @@
       <c r="F32">
         <v>2019</v>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Actividades de alojamiento y de servicio de comidas</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>8</v>
       </c>
@@ -1296,29 +1426,25 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>5.38857604679803</v>
+        <v>5.3885760467980299</v>
       </c>
       <c r="D33">
-        <v>3357.791821294279</v>
+        <v>3357.7918212942791</v>
       </c>
       <c r="E33">
-        <v>0.001602226288859862</v>
+        <v>1.602226288859862E-3</v>
       </c>
       <c r="F33">
         <v>2019</v>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Actividades de alojamiento y de servicio de comidas</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>9</v>
       </c>
@@ -1326,29 +1452,25 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>69.42517629585603</v>
+        <v>69.425176295856033</v>
       </c>
       <c r="D34">
         <v>1511.877582507394</v>
       </c>
       <c r="E34">
-        <v>0.04390378497056307</v>
+        <v>4.3903784970563069E-2</v>
       </c>
       <c r="F34">
         <v>2019</v>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Actividades financieras y de seguros; Actividades inmobiliarias</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>K-L</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>9</v>
       </c>
@@ -1356,29 +1478,25 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>87.94463432638703</v>
+        <v>87.944634326387032</v>
       </c>
       <c r="D35">
         <v>35.22010912941893</v>
       </c>
       <c r="E35">
-        <v>0.7140406569185391</v>
+        <v>0.71404065691853913</v>
       </c>
       <c r="F35">
         <v>2019</v>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Actividades financieras y de seguros; Actividades inmobiliarias</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>K-L</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>9</v>
       </c>
@@ -1386,10 +1504,10 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>36.97477362856805</v>
+        <v>36.974773628568052</v>
       </c>
       <c r="D36">
-        <v>206.0838489495116</v>
+        <v>206.08384894951161</v>
       </c>
       <c r="E36">
         <v>0.152122863350344</v>
@@ -1397,18 +1515,14 @@
       <c r="F36">
         <v>2019</v>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Actividades financieras y de seguros; Actividades inmobiliarias</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>K-L</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>9</v>
       </c>
@@ -1416,23 +1530,19 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>693.463222827087</v>
+        <v>693.46322282708695</v>
       </c>
       <c r="F37">
         <v>2019</v>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Actividades financieras y de seguros; Actividades inmobiliarias</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>K-L</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>10</v>
       </c>
@@ -1440,23 +1550,19 @@
         <v>4</v>
       </c>
       <c r="D38">
-        <v>2094.593476738197</v>
+        <v>2094.5934767381968</v>
       </c>
       <c r="F38">
         <v>2019</v>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Actividades profesionales, científicas y técnicas; Actividades de servicios administrativos y de apoyo</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>M-N</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>10</v>
       </c>
@@ -1464,10 +1570,10 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>262.7957585191942</v>
+        <v>262.79575851919418</v>
       </c>
       <c r="D39">
-        <v>334.0064908486167</v>
+        <v>334.00649084861669</v>
       </c>
       <c r="E39">
         <v>0.4403397587686243</v>
@@ -1475,18 +1581,14 @@
       <c r="F39">
         <v>2019</v>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Actividades profesionales, científicas y técnicas; Actividades de servicios administrativos y de apoyo</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>M-N</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>10</v>
       </c>
@@ -1500,23 +1602,19 @@
         <v>1105.615347280657</v>
       </c>
       <c r="E40">
-        <v>0.08878787362181115</v>
+        <v>8.8787873621811148E-2</v>
       </c>
       <c r="F40">
         <v>2019</v>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Actividades profesionales, científicas y técnicas; Actividades de servicios administrativos y de apoyo</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>M-N</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>10</v>
       </c>
@@ -1524,29 +1622,25 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>48.6449888085662</v>
+        <v>48.644988808566197</v>
       </c>
       <c r="D41">
-        <v>5912.916515333805</v>
+        <v>5912.9165153338054</v>
       </c>
       <c r="E41">
-        <v>0.008159773035095821</v>
+        <v>8.1597730350958207E-3</v>
       </c>
       <c r="F41">
         <v>2019</v>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Actividades profesionales, científicas y técnicas; Actividades de servicios administrativos y de apoyo</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>M-N</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>11</v>
       </c>
@@ -1554,29 +1648,25 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>164.9845920513999</v>
+        <v>164.98459205139989</v>
       </c>
       <c r="D42">
-        <v>64.28756601985033</v>
+        <v>64.287566019850331</v>
       </c>
       <c r="E42">
-        <v>0.7196015139358007</v>
+        <v>0.71960151393580074</v>
       </c>
       <c r="F42">
         <v>2019</v>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Enseñanza</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
+      <c r="G42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>11</v>
       </c>
@@ -1584,29 +1674,25 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>457.4765118975964</v>
+        <v>457.47651189759642</v>
       </c>
       <c r="D43">
-        <v>757.6010456514134</v>
+        <v>757.60104565141341</v>
       </c>
       <c r="E43">
-        <v>0.3764998448497344</v>
+        <v>0.37649984484973442</v>
       </c>
       <c r="F43">
         <v>2019</v>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Enseñanza</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>11</v>
       </c>
@@ -1614,29 +1700,25 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>52.05878372242932</v>
+        <v>52.058783722429318</v>
       </c>
       <c r="D44">
-        <v>2451.00984535978</v>
+        <v>2451.0098453597798</v>
       </c>
       <c r="E44">
-        <v>0.02079798496836162</v>
+        <v>2.0797984968361619E-2</v>
       </c>
       <c r="F44">
         <v>2019</v>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Enseñanza</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>11</v>
       </c>
@@ -1647,26 +1729,22 @@
         <v>33.2126298762755</v>
       </c>
       <c r="D45">
-        <v>915.9615340830961</v>
+        <v>915.96153408309613</v>
       </c>
       <c r="E45">
-        <v>0.03499108081253793</v>
+        <v>3.4991080812537927E-2</v>
       </c>
       <c r="F45">
         <v>2019</v>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Enseñanza</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
+      <c r="G45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>12</v>
       </c>
@@ -1674,29 +1752,25 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>89.02937918916587</v>
+        <v>89.029379189165866</v>
       </c>
       <c r="D46">
         <v>18.07040392385932</v>
       </c>
       <c r="E46">
-        <v>0.8312750651904761</v>
+        <v>0.83127506519047611</v>
       </c>
       <c r="F46">
         <v>2019</v>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Actividades de atención de la salud humana y de asistencia social</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
+      <c r="G46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>12</v>
       </c>
@@ -1704,29 +1778,25 @@
         <v>3</v>
       </c>
       <c r="C47">
-        <v>7.154104435656739</v>
+        <v>7.1541044356567394</v>
       </c>
       <c r="D47">
-        <v>884.2210998847189</v>
+        <v>884.22109988471891</v>
       </c>
       <c r="E47">
-        <v>0.008025918155431919</v>
+        <v>8.025918155431919E-3</v>
       </c>
       <c r="F47">
         <v>2019</v>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Actividades de atención de la salud humana y de asistencia social</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
+      <c r="G47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>12</v>
       </c>
@@ -1734,29 +1804,25 @@
         <v>4</v>
       </c>
       <c r="C48">
-        <v>21.7380952380952</v>
+        <v>21.738095238095202</v>
       </c>
       <c r="D48">
-        <v>750.0355147458682</v>
+        <v>750.03551474586823</v>
       </c>
       <c r="E48">
-        <v>0.02816641429155228</v>
+        <v>2.816641429155228E-2</v>
       </c>
       <c r="F48">
         <v>2019</v>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Actividades de atención de la salud humana y de asistencia social</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
+      <c r="G48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>12</v>
       </c>
@@ -1764,10 +1830,10 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>70.38647638641706</v>
+        <v>70.386476386417058</v>
       </c>
       <c r="D49">
-        <v>341.2254301975929</v>
+        <v>341.22543019759291</v>
       </c>
       <c r="E49">
         <v>0.1710020416332422</v>
@@ -1775,18 +1841,14 @@
       <c r="F49">
         <v>2019</v>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Actividades de atención de la salud humana y de asistencia social</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
+      <c r="G49" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>13</v>
       </c>
@@ -1794,29 +1856,25 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>71.93983876208283</v>
+        <v>71.939838762082829</v>
       </c>
       <c r="D50">
         <v>11.5937627967356</v>
       </c>
       <c r="E50">
-        <v>0.8612083930252654</v>
+        <v>0.86120839302526542</v>
       </c>
       <c r="F50">
         <v>2019</v>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Actividades artísticas, de entretenimiento y recreativas; Otras actividades de servicios</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>R-S</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
+      <c r="G50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>13</v>
       </c>
@@ -1824,29 +1882,25 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>56.36870060943421</v>
+        <v>56.368700609434207</v>
       </c>
       <c r="D51">
-        <v>141.9814201680169</v>
+        <v>141.98142016801691</v>
       </c>
       <c r="E51">
-        <v>0.2841878814517079</v>
+        <v>0.28418788145170792</v>
       </c>
       <c r="F51">
         <v>2019</v>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Actividades artísticas, de entretenimiento y recreativas; Otras actividades de servicios</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>R-S</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>13</v>
       </c>
@@ -1859,18 +1913,14 @@
       <c r="F52">
         <v>2019</v>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Actividades artísticas, de entretenimiento y recreativas; Otras actividades de servicios</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>R-S</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
+      <c r="G52" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>13</v>
       </c>
@@ -1878,20 +1928,16 @@
         <v>4</v>
       </c>
       <c r="D53">
-        <v>429.0617549796542</v>
+        <v>429.06175497965421</v>
       </c>
       <c r="F53">
         <v>2019</v>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Actividades artísticas, de entretenimiento y recreativas; Otras actividades de servicios</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>R-S</t>
-        </is>
+      <c r="G53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1900,244 +1946,200 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sector</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TAMAÑO</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>sin_sindicato</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>con_sindicato</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>porcentaje_sindicato</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ENCLA</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2631.193173263946</v>
+        <v>2631.1931732639459</v>
       </c>
       <c r="D2">
-        <v>21.43478260869565</v>
+        <v>21.434782608695649</v>
       </c>
       <c r="E2">
-        <v>0.008080583845631756</v>
+        <v>8.0805838456317561E-3</v>
       </c>
       <c r="F2">
         <v>2014</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Agricultura, ganadería, caza y silvicultura</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3426.841669803626</v>
+        <v>3426.8416698036258</v>
       </c>
       <c r="F3">
         <v>2014</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Agricultura, ganadería, caza y silvicultura</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>616.9671837115207</v>
+        <v>616.96718371152065</v>
       </c>
       <c r="D4">
-        <v>66.19406548496278</v>
+        <v>66.194065484962778</v>
       </c>
       <c r="E4">
-        <v>0.09689376492419401</v>
+        <v>9.6893764924194006E-2</v>
       </c>
       <c r="F4">
         <v>2014</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Agricultura, ganadería, caza y silvicultura</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>89.41811573381649</v>
+        <v>89.418115733816492</v>
       </c>
       <c r="D5">
-        <v>43.44654390555314</v>
+        <v>43.446543905553142</v>
       </c>
       <c r="E5">
-        <v>0.3269984962402999</v>
+        <v>0.32699849624029992</v>
       </c>
       <c r="F5">
         <v>2014</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Agricultura, ganadería, caza y silvicultura</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>17.44114972114972</v>
+        <v>17.441149721149721</v>
       </c>
       <c r="D6">
-        <v>15.20666666666667</v>
+        <v>15.206666666666671</v>
       </c>
       <c r="E6">
-        <v>0.4657789815413669</v>
+        <v>0.46577898154136688</v>
       </c>
       <c r="F6">
         <v>2014</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Pesca</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>115.5017317565324</v>
+        <v>115.50173175653239</v>
       </c>
       <c r="D7">
-        <v>8.975757575757577</v>
+        <v>8.9757575757575765</v>
       </c>
       <c r="E7">
-        <v>0.07210747600955371</v>
+        <v>7.2107476009553709E-2</v>
       </c>
       <c r="F7">
         <v>2014</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Pesca</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>100.608005521049</v>
+        <v>100.60800552104899</v>
       </c>
       <c r="D8">
         <v>10.625</v>
       </c>
       <c r="E8">
-        <v>0.09552020958374083</v>
+        <v>9.5520209583740828E-2</v>
       </c>
       <c r="F8">
         <v>2014</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Pesca</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9">
-        <v>8.244064613456075</v>
+        <v>8.2440646134560751</v>
       </c>
       <c r="D9">
         <v>24.72557642489059</v>
@@ -2148,38 +2150,30 @@
       <c r="F9">
         <v>2014</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Pesca</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>146.7718253968254</v>
+        <v>146.77182539682539</v>
       </c>
       <c r="F10">
         <v>2014</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Explotación de minas y canteras</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -2190,71 +2184,59 @@
       <c r="F11">
         <v>2014</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Explotación de minas y canteras</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>35.96922216399776</v>
+        <v>35.969222163997763</v>
       </c>
       <c r="D12">
         <v>32.51893129535344</v>
       </c>
       <c r="E12">
-        <v>0.4748110388850524</v>
+        <v>0.47481103888505238</v>
       </c>
       <c r="F12">
         <v>2014</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Explotación de minas y canteras</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13">
-        <v>2.376976597090449</v>
+        <v>2.3769765970904491</v>
       </c>
       <c r="D13">
-        <v>63.15043852348624</v>
+        <v>63.150438523486237</v>
       </c>
       <c r="E13">
-        <v>0.9637254637205422</v>
+        <v>0.96372546372054224</v>
       </c>
       <c r="F13">
         <v>2014</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Explotación de minas y canteras</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>37</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2263,127 +2245,107 @@
         <v>5226.41086045474</v>
       </c>
       <c r="D14">
-        <v>82.30891649292219</v>
+        <v>82.308916492922194</v>
       </c>
       <c r="E14">
-        <v>0.01550447564596206</v>
+        <v>1.550447564596206E-2</v>
       </c>
       <c r="F14">
         <v>2014</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Industria manufacturera</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>37</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>704.9974175091795</v>
+        <v>704.99741750917951</v>
       </c>
       <c r="D15">
-        <v>461.0446815140101</v>
+        <v>461.04468151401011</v>
       </c>
       <c r="E15">
-        <v>0.3953928266399935</v>
+        <v>0.39539282663999348</v>
       </c>
       <c r="F15">
         <v>2014</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Industria manufacturera</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>37</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>3661.121951650225</v>
+        <v>3661.1219516502251</v>
       </c>
       <c r="D16">
-        <v>91.58823529411765</v>
+        <v>91.588235294117652</v>
       </c>
       <c r="E16">
-        <v>0.02440589087128353</v>
+        <v>2.4405890871283531E-2</v>
       </c>
       <c r="F16">
         <v>2014</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Industria manufacturera</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>37</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17">
-        <v>89.65190284000984</v>
+        <v>89.651902840009839</v>
       </c>
       <c r="D17">
-        <v>414.7351064314345</v>
+        <v>414.73510643143447</v>
       </c>
       <c r="E17">
-        <v>0.8222557258770276</v>
+        <v>0.82225572587702755</v>
       </c>
       <c r="F17">
         <v>2014</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Industria manufacturera</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>39</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>78.58888888888889</v>
+        <v>78.588888888888889</v>
       </c>
       <c r="F18">
         <v>2014</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Suministro de electricidad, gas y agua</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>39</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -2400,194 +2362,162 @@
       <c r="F19">
         <v>2014</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Suministro de electricidad, gas y agua</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>39</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>14.66510804474263</v>
+        <v>14.665108044742629</v>
       </c>
       <c r="D20">
-        <v>42.19183446299433</v>
+        <v>42.191834462994329</v>
       </c>
       <c r="E20">
-        <v>0.7420700551608621</v>
+        <v>0.74207005516086211</v>
       </c>
       <c r="F20">
         <v>2014</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Suministro de electricidad, gas y agua</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>39</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
       <c r="D21">
-        <v>28.51862082033892</v>
+        <v>28.518620820338921</v>
       </c>
       <c r="F21">
         <v>2014</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Suministro de electricidad, gas y agua</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>17</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22">
-        <v>4289.765019451794</v>
+        <v>4289.7650194517937</v>
       </c>
       <c r="D22">
-        <v>18.40082644628099</v>
+        <v>18.400826446280991</v>
       </c>
       <c r="E22">
-        <v>0.004271150903765911</v>
+        <v>4.2711509037659107E-3</v>
       </c>
       <c r="F22">
         <v>2014</v>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Construcción</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>17</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>3293.065367319523</v>
+        <v>3293.0653673195229</v>
       </c>
       <c r="F23">
         <v>2014</v>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Construcción</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>17</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24">
-        <v>224.6365860626094</v>
+        <v>224.63658606260941</v>
       </c>
       <c r="D24">
         <v>105.2958594815846</v>
       </c>
       <c r="E24">
-        <v>0.3191436941217117</v>
+        <v>0.31914369412171167</v>
       </c>
       <c r="F24">
         <v>2014</v>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Construcción</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>17</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>946.9991265376553</v>
+        <v>946.99912653765534</v>
       </c>
       <c r="D25">
         <v>111.5979615371708</v>
       </c>
       <c r="E25">
-        <v>0.1054206201720465</v>
+        <v>0.10542062017204649</v>
       </c>
       <c r="F25">
         <v>2014</v>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Construcción</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>19</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26">
-        <v>7685.588942940668</v>
+        <v>7685.5889429406679</v>
       </c>
       <c r="D26">
-        <v>137.9265210264334</v>
+        <v>137.92652102643339</v>
       </c>
       <c r="E26">
-        <v>0.01762973712542449</v>
+        <v>1.762973712542449E-2</v>
       </c>
       <c r="F26">
         <v>2014</v>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Comercio al por mayor y al por menor; Reparación de vehículos automotores, motocicletas, efectos personales y enseres do</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>19</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -2596,154 +2526,130 @@
         <v>1166.091412539937</v>
       </c>
       <c r="D27">
-        <v>50.29586813273797</v>
+        <v>50.295868132737972</v>
       </c>
       <c r="E27">
-        <v>0.04134856466513183</v>
+        <v>4.1348564665131829E-2</v>
       </c>
       <c r="F27">
         <v>2014</v>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Comercio al por mayor y al por menor; Reparación de vehículos automotores, motocicletas, efectos personales y enseres do</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>19</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
       <c r="C28">
-        <v>154.5725531409387</v>
+        <v>154.57255314093871</v>
       </c>
       <c r="D28">
-        <v>241.1501269764103</v>
+        <v>241.15012697641029</v>
       </c>
       <c r="E28">
-        <v>0.6093917258037847</v>
+        <v>0.60939172580378465</v>
       </c>
       <c r="F28">
         <v>2014</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Comercio al por mayor y al por menor; Reparación de vehículos automotores, motocicletas, efectos personales y enseres do</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>19</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>7678.418814174045</v>
+        <v>7678.4188141740451</v>
       </c>
       <c r="F29">
         <v>2014</v>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Comercio al por mayor y al por menor; Reparación de vehículos automotores, motocicletas, efectos personales y enseres do</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>42</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30">
-        <v>1710.509593727328</v>
+        <v>1710.5095937273279</v>
       </c>
       <c r="D30">
         <v>308.1730544266216</v>
       </c>
       <c r="E30">
-        <v>0.1526604762310909</v>
+        <v>0.15266047623109091</v>
       </c>
       <c r="F30">
         <v>2014</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Hoteles y restaurantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>42</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>152.9923405423349</v>
+        <v>152.99234054233489</v>
       </c>
       <c r="D31">
-        <v>131.6004759425711</v>
+        <v>131.60047594257111</v>
       </c>
       <c r="E31">
-        <v>0.4624167172172837</v>
+        <v>0.46241671721728372</v>
       </c>
       <c r="F31">
         <v>2014</v>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Hoteles y restaurantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>42</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32">
-        <v>48.12674492911081</v>
+        <v>48.126744929110806</v>
       </c>
       <c r="D32">
-        <v>50.79772857564534</v>
+        <v>50.797728575645337</v>
       </c>
       <c r="E32">
-        <v>0.5135001155523264</v>
+        <v>0.51350011555232644</v>
       </c>
       <c r="F32">
         <v>2014</v>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Hoteles y restaurantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>42</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2754,167 +2660,139 @@
       <c r="F33">
         <v>2014</v>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Hoteles y restaurantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>23</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34">
-        <v>3132.35858326259</v>
+        <v>3132.3585832625899</v>
       </c>
       <c r="D34">
         <v>97.89220083618801</v>
       </c>
       <c r="E34">
-        <v>0.03030482998969363</v>
+        <v>3.0304829989693631E-2</v>
       </c>
       <c r="F34">
         <v>2014</v>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Transporte, almacenamiento y comunicaciones</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>23</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>2901.313541034129</v>
+        <v>2901.3135410341288</v>
       </c>
       <c r="D35">
         <v>159.2777777777778</v>
       </c>
       <c r="E35">
-        <v>0.05204150478986783</v>
+        <v>5.2041504789867833E-2</v>
       </c>
       <c r="F35">
         <v>2014</v>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Transporte, almacenamiento y comunicaciones</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>23</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>381.4670117857055</v>
+        <v>381.46701178570549</v>
       </c>
       <c r="D36">
-        <v>196.7577840894415</v>
+        <v>196.75778408944149</v>
       </c>
       <c r="E36">
-        <v>0.3402790497623807</v>
+        <v>0.34027904976238071</v>
       </c>
       <c r="F36">
         <v>2014</v>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Transporte, almacenamiento y comunicaciones</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
+      <c r="G36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>23</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
       <c r="C37">
-        <v>44.96715580455584</v>
+        <v>44.967155804555837</v>
       </c>
       <c r="D37">
         <v>141.0678748457882</v>
       </c>
       <c r="E37">
-        <v>0.7582866213564242</v>
+        <v>0.75828662135642422</v>
       </c>
       <c r="F37">
         <v>2014</v>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Transporte, almacenamiento y comunicaciones</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
+      <c r="G37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>45</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38">
-        <v>679.4746958431774</v>
+        <v>679.47469584317741</v>
       </c>
       <c r="F38">
         <v>2014</v>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Intermediación financiera</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>45</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>178.4381748686097</v>
+        <v>178.43817486860971</v>
       </c>
       <c r="F39">
         <v>2014</v>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Intermediación financiera</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>45</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -2923,100 +2801,84 @@
         <v>112.5442127085028</v>
       </c>
       <c r="D40">
-        <v>37.12902211998831</v>
+        <v>37.129022119988313</v>
       </c>
       <c r="E40">
-        <v>0.2480672123010773</v>
+        <v>0.24806721230107731</v>
       </c>
       <c r="F40">
         <v>2014</v>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Intermediación financiera</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>45</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
       <c r="C41">
-        <v>41.20385857914918</v>
+        <v>41.203858579149177</v>
       </c>
       <c r="D41">
         <v>49.37248271489387</v>
       </c>
       <c r="E41">
-        <v>0.5450924823140428</v>
+        <v>0.54509248231404284</v>
       </c>
       <c r="F41">
         <v>2014</v>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Intermediación financiera</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>47</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42">
-        <v>4757.162663931016</v>
+        <v>4757.1626639310161</v>
       </c>
       <c r="D42">
-        <v>176.5819304808219</v>
+        <v>176.58193048082191</v>
       </c>
       <c r="E42">
-        <v>0.03579065091468776</v>
+        <v>3.5790650914687763E-2</v>
       </c>
       <c r="F42">
         <v>2014</v>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Actividades inmobiliarias, empresariales y de alquiler</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
+      <c r="G42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>47</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>4679.035197990606</v>
+        <v>4679.0351979906063</v>
       </c>
       <c r="F43">
         <v>2014</v>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Actividades inmobiliarias, empresariales y de alquiler</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
+      <c r="G43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>47</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -3033,71 +2895,59 @@
       <c r="F44">
         <v>2014</v>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Actividades inmobiliarias, empresariales y de alquiler</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
+      <c r="G44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>47</v>
       </c>
       <c r="B45">
         <v>4</v>
       </c>
       <c r="C45">
-        <v>292.7504156135838</v>
+        <v>292.75041561358381</v>
       </c>
       <c r="D45">
-        <v>361.0643633173595</v>
+        <v>361.06436331735949</v>
       </c>
       <c r="E45">
-        <v>0.5522425845248377</v>
+        <v>0.55224258452483765</v>
       </c>
       <c r="F45">
         <v>2014</v>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Actividades inmobiliarias, empresariales y de alquiler</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
+      <c r="G45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>49</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>754.8952751588965</v>
+        <v>754.89527515889654</v>
       </c>
       <c r="D46">
-        <v>276.6137715107973</v>
+        <v>276.61377151079728</v>
       </c>
       <c r="E46">
-        <v>0.2681641740359584</v>
+        <v>0.26816417403595838</v>
       </c>
       <c r="F46">
         <v>2014</v>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Enseñanza</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>49</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3108,173 +2958,145 @@
       <c r="F47">
         <v>2014</v>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Enseñanza</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
+      <c r="G47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>49</v>
       </c>
       <c r="B48">
         <v>4</v>
       </c>
       <c r="C48">
-        <v>112.4373109199912</v>
+        <v>112.43731091999121</v>
       </c>
       <c r="D48">
         <v>208.3177442935974</v>
       </c>
       <c r="E48">
-        <v>0.6494605179484388</v>
+        <v>0.64946051794843884</v>
       </c>
       <c r="F48">
         <v>2014</v>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Enseñanza</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
+      <c r="G48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>49</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49">
-        <v>2455.570040259705</v>
+        <v>2455.5700402597049</v>
       </c>
       <c r="D49">
-        <v>99.19241297005274</v>
+        <v>99.192412970052743</v>
       </c>
       <c r="E49">
-        <v>0.03882647204426096</v>
+        <v>3.8826472044260957E-2</v>
       </c>
       <c r="F49">
         <v>2014</v>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Enseñanza</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+      <c r="G49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>50</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50">
-        <v>116.5646808264083</v>
+        <v>116.56468082640831</v>
       </c>
       <c r="D50">
-        <v>81.16958624431109</v>
+        <v>81.169586244311091</v>
       </c>
       <c r="E50">
-        <v>0.41049832913018</v>
+        <v>0.41049832913017997</v>
       </c>
       <c r="F50">
         <v>2014</v>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Servicios sociales y de salud</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+      <c r="G50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>50</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>466.2850606909431</v>
+        <v>466.28506069094311</v>
       </c>
       <c r="F51">
         <v>2014</v>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Servicios sociales y de salud</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+      <c r="G51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>50</v>
       </c>
       <c r="B52">
         <v>4</v>
       </c>
       <c r="C52">
-        <v>29.20593217747607</v>
+        <v>29.205932177476068</v>
       </c>
       <c r="D52">
         <v>124.7839298971014</v>
       </c>
       <c r="E52">
-        <v>0.8103386042171296</v>
+        <v>0.81033860421712955</v>
       </c>
       <c r="F52">
         <v>2014</v>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Servicios sociales y de salud</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+      <c r="G52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>50</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
       <c r="C53">
-        <v>808.5339872121028</v>
+        <v>808.53398721210283</v>
       </c>
       <c r="D53">
-        <v>16.76121593291405</v>
+        <v>16.761215932914052</v>
       </c>
       <c r="E53">
-        <v>0.02030935823816832</v>
+        <v>2.0309358238168321E-2</v>
       </c>
       <c r="F53">
         <v>2014</v>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Servicios sociales y de salud</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+      <c r="G53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>52</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -3286,49 +3108,41 @@
         <v>106.427786209244</v>
       </c>
       <c r="E54">
-        <v>0.08729417948587663</v>
+        <v>8.729417948587663E-2</v>
       </c>
       <c r="F54">
         <v>2014</v>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Otras actividades de servicios comunitarios, sociales y personales</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+      <c r="G54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>52</v>
       </c>
       <c r="B55">
         <v>4</v>
       </c>
       <c r="C55">
-        <v>48.26963468065109</v>
+        <v>48.269634680651087</v>
       </c>
       <c r="D55">
         <v>77.4689425787017</v>
       </c>
       <c r="E55">
-        <v>0.6161111750048798</v>
+        <v>0.61611117500487977</v>
       </c>
       <c r="F55">
         <v>2014</v>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Otras actividades de servicios comunitarios, sociales y personales</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+      <c r="G55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>52</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3339,40 +3153,964 @@
       <c r="F56">
         <v>2014</v>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Otras actividades de servicios comunitarios, sociales y personales</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+      <c r="G56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>52</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
       <c r="C57">
-        <v>152.0283173716165</v>
+        <v>152.02831737161651</v>
       </c>
       <c r="D57">
-        <v>106.3763600095973</v>
+        <v>106.37636000959731</v>
       </c>
       <c r="E57">
-        <v>0.4116657681573799</v>
+        <v>0.41166576815737987</v>
       </c>
       <c r="F57">
         <v>2014</v>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Otras actividades de servicios comunitarios, sociales y personales</t>
-        </is>
+      <c r="G57" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="11.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="F2">
+        <v>1998</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F3">
+        <v>1998</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>1998</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>1998</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>1998</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1998</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F8">
+        <v>1998</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>1998</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>0.96969696969696972</v>
+      </c>
+      <c r="F10">
+        <v>1998</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>1998</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>82</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.1182795698924731</v>
+      </c>
+      <c r="F12">
+        <v>1998</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>105</v>
+      </c>
+      <c r="E13">
+        <v>0.82677165354330706</v>
+      </c>
+      <c r="F13">
+        <v>1998</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>1998</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F15">
+        <v>1998</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="F16">
+        <v>1998</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="F17">
+        <v>1998</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="F18">
+        <v>1998</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>0.95</v>
+      </c>
+      <c r="F19">
+        <v>1998</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>1998</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21">
+        <v>1998</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="F22">
+        <v>1998</v>
+      </c>
+      <c r="G22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="F23">
+        <v>1998</v>
+      </c>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>117</v>
+      </c>
+      <c r="E24">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F24">
+        <v>1998</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>155</v>
+      </c>
+      <c r="E25">
+        <v>0.96875</v>
+      </c>
+      <c r="F25">
+        <v>1998</v>
+      </c>
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>1998</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>0.96</v>
+      </c>
+      <c r="F27">
+        <v>1998</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F28">
+        <v>1998</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F29">
+        <v>1998</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>0.75</v>
+      </c>
+      <c r="F30">
+        <v>1998</v>
+      </c>
+      <c r="G30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="F31">
+        <v>1998</v>
+      </c>
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <v>1998</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>36</v>
+      </c>
+      <c r="F33">
+        <v>1998</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>76</v>
+      </c>
+      <c r="E34">
+        <v>0.95</v>
+      </c>
+      <c r="F34">
+        <v>1998</v>
+      </c>
+      <c r="G34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="F35">
+        <v>1998</v>
+      </c>
+      <c r="G35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F36">
+        <v>1998</v>
+      </c>
+      <c r="G36" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>54</v>
+      </c>
+      <c r="F37">
+        <v>1998</v>
+      </c>
+      <c r="G37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H37" xr:uid="{9D732B0A-9EB2-466B-BCB5-BD80DDD0DD14}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>